--- a/GemboxExcel/GemboxDemo.xlsx
+++ b/GemboxExcel/GemboxDemo.xlsx
@@ -49,226 +49,226 @@
     <t>2</t>
   </si>
   <si>
+    <t>Cash Withdrawl</t>
+  </si>
+  <si>
+    <t>434915</t>
+  </si>
+  <si>
+    <t>-394482</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Fuel Surcharge Waiver</t>
+  </si>
+  <si>
+    <t>758500</t>
+  </si>
+  <si>
+    <t>364018</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>488747</t>
+  </si>
+  <si>
+    <t>-124729</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>945798</t>
+  </si>
+  <si>
+    <t>821069</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Cheque Deposited</t>
+  </si>
+  <si>
+    <t>365568</t>
+  </si>
+  <si>
+    <t>1186637</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>ECS for EMI</t>
+  </si>
+  <si>
+    <t>603615</t>
+  </si>
+  <si>
+    <t>583022</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>844992</t>
+  </si>
+  <si>
+    <t>-261970</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Cash Withdrawl for ATM</t>
   </si>
   <si>
-    <t>434915</t>
-  </si>
-  <si>
-    <t>-394482</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ECS for EMI</t>
-  </si>
-  <si>
-    <t>758500</t>
-  </si>
-  <si>
-    <t>-1152982</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>488747</t>
-  </si>
-  <si>
-    <t>-1641729</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Fuel Surcharge Waiver</t>
-  </si>
-  <si>
-    <t>945798</t>
-  </si>
-  <si>
-    <t>-695931</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>677964</t>
+  </si>
+  <si>
+    <t>-939934</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Reward Points</t>
+  </si>
+  <si>
+    <t>371347</t>
+  </si>
+  <si>
+    <t>-568587</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>819847</t>
+  </si>
+  <si>
+    <t>251260</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>912494</t>
+  </si>
+  <si>
+    <t>-661234</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>691512</t>
+  </si>
+  <si>
+    <t>30278</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>738771</t>
+  </si>
+  <si>
+    <t>-708493</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>847874</t>
+  </si>
+  <si>
+    <t>139381</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Card Swipped</t>
+  </si>
+  <si>
+    <t>926660</t>
+  </si>
+  <si>
+    <t>-787279</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>932513</t>
+  </si>
+  <si>
+    <t>-1719792</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>322402</t>
+  </si>
+  <si>
+    <t>-2042194</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>63529</t>
+  </si>
+  <si>
+    <t>-1978665</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>196996</t>
+  </si>
+  <si>
+    <t>-1781669</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>355130</t>
+  </si>
+  <si>
+    <t>-1426539</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>545603</t>
+  </si>
+  <si>
+    <t>-880936</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>Cash Deposited</t>
   </si>
   <si>
-    <t>365568</t>
-  </si>
-  <si>
-    <t>-330363</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Cheque Deposited</t>
-  </si>
-  <si>
-    <t>603615</t>
-  </si>
-  <si>
-    <t>273252</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>844992</t>
-  </si>
-  <si>
-    <t>1118244</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Reward Points</t>
-  </si>
-  <si>
-    <t>677964</t>
-  </si>
-  <si>
-    <t>1796208</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>371347</t>
-  </si>
-  <si>
-    <t>2167555</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Cash Withdrawl</t>
-  </si>
-  <si>
-    <t>819847</t>
-  </si>
-  <si>
-    <t>1347708</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>912494</t>
-  </si>
-  <si>
-    <t>435214</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>691512</t>
-  </si>
-  <si>
-    <t>-256298</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>738771</t>
-  </si>
-  <si>
-    <t>-995069</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>847874</t>
-  </si>
-  <si>
-    <t>-1842943</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>926660</t>
-  </si>
-  <si>
-    <t>-916283</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>932513</t>
-  </si>
-  <si>
-    <t>-1848796</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>322402</t>
-  </si>
-  <si>
-    <t>-2171198</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>63529</t>
-  </si>
-  <si>
-    <t>-2107669</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>196996</t>
-  </si>
-  <si>
-    <t>-2304665</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>355130</t>
-  </si>
-  <si>
-    <t>-1949535</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>545603</t>
-  </si>
-  <si>
-    <t>-1403932</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Card Swipped</t>
-  </si>
-  <si>
     <t>2258</t>
   </si>
   <si>
-    <t>-1406190</t>
+    <t>-878678</t>
   </si>
   <si>
     <t>24</t>
@@ -277,7 +277,7 @@
     <t>911951</t>
   </si>
   <si>
-    <t>-494239</t>
+    <t>-1790629</t>
   </si>
   <si>
     <t>25</t>
@@ -286,7 +286,7 @@
     <t>413417</t>
   </si>
   <si>
-    <t>-907656</t>
+    <t>-1377212</t>
   </si>
   <si>
     <t>26</t>
@@ -295,7 +295,7 @@
     <t>536748</t>
   </si>
   <si>
-    <t>-1444404</t>
+    <t>-840464</t>
   </si>
   <si>
     <t>27</t>
@@ -304,7 +304,7 @@
     <t>897807</t>
   </si>
   <si>
-    <t>-546597</t>
+    <t>57343</t>
   </si>
   <si>
     <t>28</t>
@@ -313,7 +313,7 @@
     <t>647317</t>
   </si>
   <si>
-    <t>100720</t>
+    <t>-589974</t>
   </si>
   <si>
     <t>29</t>
@@ -322,7 +322,7 @@
     <t>542816</t>
   </si>
   <si>
-    <t>643536</t>
+    <t>-47158</t>
   </si>
   <si>
     <t>30</t>
@@ -331,7 +331,7 @@
     <t>671818</t>
   </si>
   <si>
-    <t>1315354</t>
+    <t>-718976</t>
   </si>
   <si>
     <t>31</t>
@@ -340,7 +340,7 @@
     <t>928760</t>
   </si>
   <si>
-    <t>386594</t>
+    <t>209784</t>
   </si>
   <si>
     <t>32</t>
@@ -349,7 +349,7 @@
     <t>275442</t>
   </si>
   <si>
-    <t>662036</t>
+    <t>-65658</t>
   </si>
   <si>
     <t>33</t>
@@ -358,7 +358,7 @@
     <t>263614</t>
   </si>
   <si>
-    <t>398422</t>
+    <t>-329272</t>
   </si>
   <si>
     <t>34</t>
@@ -367,7 +367,7 @@
     <t>612050</t>
   </si>
   <si>
-    <t>-213628</t>
+    <t>282778</t>
   </si>
   <si>
     <t>35</t>
@@ -376,7 +376,7 @@
     <t>266268</t>
   </si>
   <si>
-    <t>52640</t>
+    <t>549046</t>
   </si>
   <si>
     <t>36</t>
@@ -385,7 +385,7 @@
     <t>779590</t>
   </si>
   <si>
-    <t>-726950</t>
+    <t>1328636</t>
   </si>
   <si>
     <t>37</t>
@@ -394,7 +394,7 @@
     <t>336563</t>
   </si>
   <si>
-    <t>-1063513</t>
+    <t>992073</t>
   </si>
   <si>
     <t>38</t>
@@ -403,7 +403,7 @@
     <t>198956</t>
   </si>
   <si>
-    <t>-1262469</t>
+    <t>793117</t>
   </si>
   <si>
     <t>39</t>
@@ -412,7 +412,7 @@
     <t>252098</t>
   </si>
   <si>
-    <t>-1010371</t>
+    <t>541019</t>
   </si>
   <si>
     <t>40</t>
@@ -421,7 +421,7 @@
     <t>36051</t>
   </si>
   <si>
-    <t>-974320</t>
+    <t>577070</t>
   </si>
   <si>
     <t>41</t>
@@ -430,7 +430,7 @@
     <t>450709</t>
   </si>
   <si>
-    <t>-523611</t>
+    <t>126361</t>
   </si>
   <si>
     <t>42</t>
@@ -439,7 +439,7 @@
     <t>553576</t>
   </si>
   <si>
-    <t>-1077187</t>
+    <t>679937</t>
   </si>
   <si>
     <t>43</t>
@@ -448,7 +448,7 @@
     <t>817591</t>
   </si>
   <si>
-    <t>-1894778</t>
+    <t>1497528</t>
   </si>
   <si>
     <t>44</t>
@@ -457,7 +457,7 @@
     <t>274183</t>
   </si>
   <si>
-    <t>-2168961</t>
+    <t>1223345</t>
   </si>
   <si>
     <t>45</t>
@@ -466,7 +466,7 @@
     <t>884695</t>
   </si>
   <si>
-    <t>-1284266</t>
+    <t>338650</t>
   </si>
   <si>
     <t>46</t>
@@ -475,7 +475,7 @@
     <t>731019</t>
   </si>
   <si>
-    <t>-2015285</t>
+    <t>-392369</t>
   </si>
   <si>
     <t>47</t>
@@ -484,7 +484,7 @@
     <t>671567</t>
   </si>
   <si>
-    <t>-2686852</t>
+    <t>279198</t>
   </si>
   <si>
     <t>48</t>
@@ -493,7 +493,7 @@
     <t>352056</t>
   </si>
   <si>
-    <t>-3038908</t>
+    <t>-72858</t>
   </si>
   <si>
     <t>49</t>
@@ -502,7 +502,7 @@
     <t>856061</t>
   </si>
   <si>
-    <t>-2182847</t>
+    <t>783203</t>
   </si>
   <si>
     <t>50</t>
@@ -511,7 +511,7 @@
     <t>592381</t>
   </si>
   <si>
-    <t>-2775228</t>
+    <t>1375584</t>
   </si>
   <si>
     <t>51</t>
@@ -520,7 +520,7 @@
     <t>776723</t>
   </si>
   <si>
-    <t>-3551951</t>
+    <t>2152307</t>
   </si>
   <si>
     <t>52</t>
@@ -529,7 +529,7 @@
     <t>172885</t>
   </si>
   <si>
-    <t>-3379066</t>
+    <t>1979422</t>
   </si>
   <si>
     <t>53</t>
@@ -538,7 +538,7 @@
     <t>148429</t>
   </si>
   <si>
-    <t>-3527495</t>
+    <t>2127851</t>
   </si>
   <si>
     <t>54</t>
@@ -547,7 +547,7 @@
     <t>399980</t>
   </si>
   <si>
-    <t>-3127515</t>
+    <t>2527831</t>
   </si>
   <si>
     <t>55</t>
@@ -556,7 +556,7 @@
     <t>857942</t>
   </si>
   <si>
-    <t>-2269573</t>
+    <t>1669889</t>
   </si>
   <si>
     <t>56</t>
@@ -565,7 +565,7 @@
     <t>494830</t>
   </si>
   <si>
-    <t>-1774743</t>
+    <t>2164719</t>
   </si>
   <si>
     <t>57</t>
@@ -574,7 +574,7 @@
     <t>432658</t>
   </si>
   <si>
-    <t>-2207401</t>
+    <t>1732061</t>
   </si>
   <si>
     <t>58</t>
@@ -583,7 +583,7 @@
     <t>846548</t>
   </si>
   <si>
-    <t>-1360853</t>
+    <t>885513</t>
   </si>
   <si>
     <t>59</t>
@@ -592,7 +592,7 @@
     <t>75330</t>
   </si>
   <si>
-    <t>-1285523</t>
+    <t>810183</t>
   </si>
   <si>
     <t>60</t>
@@ -601,7 +601,7 @@
     <t>409050</t>
   </si>
   <si>
-    <t>-876473</t>
+    <t>1219233</t>
   </si>
   <si>
     <t>61</t>
@@ -610,7 +610,7 @@
     <t>467760</t>
   </si>
   <si>
-    <t>-1344233</t>
+    <t>751473</t>
   </si>
   <si>
     <t>62</t>
@@ -619,7 +619,7 @@
     <t>956298</t>
   </si>
   <si>
-    <t>-2300531</t>
+    <t>-204825</t>
   </si>
   <si>
     <t>63</t>
@@ -628,7 +628,7 @@
     <t>302177</t>
   </si>
   <si>
-    <t>-1998354</t>
+    <t>97352</t>
   </si>
   <si>
     <t>64</t>
@@ -637,7 +637,7 @@
     <t>6146</t>
   </si>
   <si>
-    <t>-2004500</t>
+    <t>103498</t>
   </si>
   <si>
     <t>65</t>
@@ -646,7 +646,7 @@
     <t>442586</t>
   </si>
   <si>
-    <t>-2447086</t>
+    <t>-339088</t>
   </si>
   <si>
     <t>66</t>
@@ -655,7 +655,7 @@
     <t>544406</t>
   </si>
   <si>
-    <t>-1902680</t>
+    <t>205318</t>
   </si>
   <si>
     <t>67</t>
@@ -664,7 +664,7 @@
     <t>648881</t>
   </si>
   <si>
-    <t>-2551561</t>
+    <t>-443563</t>
   </si>
   <si>
     <t>68</t>
@@ -673,7 +673,7 @@
     <t>79463</t>
   </si>
   <si>
-    <t>-2631024</t>
+    <t>-523026</t>
   </si>
   <si>
     <t>69</t>
@@ -682,7 +682,7 @@
     <t>472503</t>
   </si>
   <si>
-    <t>-2158521</t>
+    <t>-995529</t>
   </si>
   <si>
     <t>70</t>
@@ -691,7 +691,7 @@
     <t>68284</t>
   </si>
   <si>
-    <t>-2226805</t>
+    <t>-1063813</t>
   </si>
   <si>
     <t>71</t>
@@ -700,7 +700,7 @@
     <t>590098</t>
   </si>
   <si>
-    <t>-1636707</t>
+    <t>-1653911</t>
   </si>
   <si>
     <t>72</t>
@@ -709,7 +709,7 @@
     <t>733557</t>
   </si>
   <si>
-    <t>-2370264</t>
+    <t>-920354</t>
   </si>
   <si>
     <t>73</t>
@@ -718,7 +718,7 @@
     <t>70304</t>
   </si>
   <si>
-    <t>-2299960</t>
+    <t>-850050</t>
   </si>
   <si>
     <t>74</t>
@@ -727,7 +727,7 @@
     <t>27479</t>
   </si>
   <si>
-    <t>-2327439</t>
+    <t>-822571</t>
   </si>
   <si>
     <t>75</t>
@@ -736,7 +736,7 @@
     <t>746286</t>
   </si>
   <si>
-    <t>-3073725</t>
+    <t>-76285</t>
   </si>
   <si>
     <t>76</t>
@@ -745,7 +745,7 @@
     <t>801554</t>
   </si>
   <si>
-    <t>-2272171</t>
+    <t>-877839</t>
   </si>
   <si>
     <t>77</t>
@@ -754,7 +754,7 @@
     <t>728012</t>
   </si>
   <si>
-    <t>-1544159</t>
+    <t>-1605851</t>
   </si>
   <si>
     <t>78</t>
@@ -763,7 +763,7 @@
     <t>728075</t>
   </si>
   <si>
-    <t>-2272234</t>
+    <t>-2333926</t>
   </si>
   <si>
     <t>79</t>
@@ -772,7 +772,7 @@
     <t>27257</t>
   </si>
   <si>
-    <t>-2299491</t>
+    <t>-2306669</t>
   </si>
   <si>
     <t>80</t>
@@ -781,7 +781,7 @@
     <t>682397</t>
   </si>
   <si>
-    <t>-2981888</t>
+    <t>-2989066</t>
   </si>
   <si>
     <t>81</t>
@@ -790,7 +790,7 @@
     <t>865180</t>
   </si>
   <si>
-    <t>-3847068</t>
+    <t>-3854246</t>
   </si>
   <si>
     <t>82</t>
@@ -799,7 +799,7 @@
     <t>545751</t>
   </si>
   <si>
-    <t>-3301317</t>
+    <t>-3308495</t>
   </si>
   <si>
     <t>83</t>
@@ -808,7 +808,7 @@
     <t>791255</t>
   </si>
   <si>
-    <t>-2510062</t>
+    <t>-2517240</t>
   </si>
   <si>
     <t>84</t>
@@ -817,7 +817,7 @@
     <t>950434</t>
   </si>
   <si>
-    <t>-1559628</t>
+    <t>-3467674</t>
   </si>
   <si>
     <t>85</t>
@@ -826,7 +826,7 @@
     <t>895094</t>
   </si>
   <si>
-    <t>-664534</t>
+    <t>-2572580</t>
   </si>
   <si>
     <t>86</t>
@@ -835,7 +835,7 @@
     <t>755876</t>
   </si>
   <si>
-    <t>91342</t>
+    <t>-1816704</t>
   </si>
   <si>
     <t>87</t>
@@ -844,7 +844,7 @@
     <t>127013</t>
   </si>
   <si>
-    <t>218355</t>
+    <t>-1689691</t>
   </si>
   <si>
     <t>88</t>
@@ -853,7 +853,7 @@
     <t>863633</t>
   </si>
   <si>
-    <t>1081988</t>
+    <t>-826058</t>
   </si>
   <si>
     <t>89</t>
@@ -862,7 +862,7 @@
     <t>754107</t>
   </si>
   <si>
-    <t>1836095</t>
+    <t>-71951</t>
   </si>
   <si>
     <t>90</t>
@@ -871,7 +871,7 @@
     <t>771438</t>
   </si>
   <si>
-    <t>1064657</t>
+    <t>-843389</t>
   </si>
   <si>
     <t>91</t>
@@ -880,7 +880,7 @@
     <t>346933</t>
   </si>
   <si>
-    <t>717724</t>
+    <t>-496456</t>
   </si>
   <si>
     <t>92</t>
@@ -889,7 +889,7 @@
     <t>490014</t>
   </si>
   <si>
-    <t>227710</t>
+    <t>-986470</t>
   </si>
   <si>
     <t>93</t>
@@ -898,7 +898,7 @@
     <t>123626</t>
   </si>
   <si>
-    <t>351336</t>
+    <t>-1110096</t>
   </si>
   <si>
     <t>94</t>
@@ -907,7 +907,7 @@
     <t>843047</t>
   </si>
   <si>
-    <t>-491711</t>
+    <t>-267049</t>
   </si>
   <si>
     <t>95</t>
@@ -916,7 +916,7 @@
     <t>568291</t>
   </si>
   <si>
-    <t>76580</t>
+    <t>301242</t>
   </si>
   <si>
     <t>96</t>
@@ -925,7 +925,7 @@
     <t>494410</t>
   </si>
   <si>
-    <t>570990</t>
+    <t>-193168</t>
   </si>
   <si>
     <t>97</t>
@@ -934,7 +934,7 @@
     <t>251399</t>
   </si>
   <si>
-    <t>319591</t>
+    <t>-444567</t>
   </si>
   <si>
     <t>98</t>
@@ -943,7 +943,7 @@
     <t>811445</t>
   </si>
   <si>
-    <t>-491854</t>
+    <t>-1256012</t>
   </si>
   <si>
     <t>99</t>
@@ -952,7 +952,7 @@
     <t>831597</t>
   </si>
   <si>
-    <t>-1323451</t>
+    <t>-2087609</t>
   </si>
   <si>
     <t>100</t>
@@ -961,7 +961,7 @@
     <t>340290</t>
   </si>
   <si>
-    <t>-1663741</t>
+    <t>-1747319</t>
   </si>
 </sst>
 </file>
@@ -1376,22 +1376,22 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1400,112 +1400,112 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6"/>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
       </c>
       <c r="G7"/>
     </row>
     <row r="8">
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9">
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10">
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
       </c>
       <c r="G10"/>
     </row>
     <row r="11">
       <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
       </c>
       <c r="G11"/>
     </row>
     <row r="12">
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
         <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>42</v>
@@ -1520,22 +1520,22 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
       </c>
       <c r="G13"/>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1544,76 +1544,76 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
       </c>
       <c r="G14"/>
     </row>
     <row r="15">
       <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>53</v>
       </c>
       <c r="G15"/>
     </row>
     <row r="16">
       <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
       </c>
       <c r="G16"/>
     </row>
     <row r="17">
       <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>58</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18">
       <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
       </c>
       <c r="E18" t="s">
         <v>61</v>
@@ -1631,7 +1631,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
         <v>64</v>
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
@@ -1664,10 +1664,10 @@
         <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
         <v>70</v>
@@ -1682,10 +1682,10 @@
         <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
         <v>73</v>
@@ -1700,10 +1700,10 @@
         <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
         <v>76</v>
@@ -1718,10 +1718,10 @@
         <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
         <v>79</v>
@@ -1736,7 +1736,7 @@
         <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
         <v>82</v>
@@ -1754,10 +1754,10 @@
         <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
         <v>86</v>
@@ -1772,10 +1772,10 @@
         <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
         <v>89</v>
@@ -1790,10 +1790,10 @@
         <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
         <v>92</v>
@@ -1808,10 +1808,10 @@
         <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
         <v>95</v>
@@ -1826,10 +1826,10 @@
         <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
         <v>98</v>
@@ -1844,10 +1844,10 @@
         <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
         <v>101</v>
@@ -1862,10 +1862,10 @@
         <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
         <v>104</v>
@@ -1880,10 +1880,10 @@
         <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
         <v>107</v>
@@ -1898,10 +1898,10 @@
         <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
         <v>110</v>
@@ -1934,10 +1934,10 @@
         <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
         <v>116</v>
@@ -1952,10 +1952,10 @@
         <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
         <v>119</v>
@@ -1970,10 +1970,10 @@
         <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
         <v>122</v>
@@ -1991,7 +1991,7 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
         <v>125</v>
@@ -2009,7 +2009,7 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
         <v>128</v>
@@ -2024,10 +2024,10 @@
         <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
         <v>131</v>
@@ -2042,10 +2042,10 @@
         <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="E42" t="s">
         <v>134</v>
@@ -2060,10 +2060,10 @@
         <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E43" t="s">
         <v>137</v>
@@ -2078,10 +2078,10 @@
         <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
         <v>140</v>
@@ -2096,10 +2096,10 @@
         <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
         <v>143</v>
@@ -2117,7 +2117,7 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
         <v>146</v>
@@ -2132,10 +2132,10 @@
         <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
         <v>149</v>
@@ -2153,7 +2153,7 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
         <v>152</v>
@@ -2168,7 +2168,7 @@
         <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
@@ -2189,7 +2189,7 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
         <v>158</v>
@@ -2204,10 +2204,10 @@
         <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
         <v>161</v>
@@ -2222,10 +2222,10 @@
         <v>163</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
         <v>164</v>
@@ -2240,10 +2240,10 @@
         <v>166</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
         <v>167</v>
@@ -2258,10 +2258,10 @@
         <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E54" t="s">
         <v>170</v>
@@ -2276,10 +2276,10 @@
         <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E55" t="s">
         <v>173</v>
@@ -2294,10 +2294,10 @@
         <v>175</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E56" t="s">
         <v>176</v>
@@ -2312,10 +2312,10 @@
         <v>178</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E57" t="s">
         <v>179</v>
@@ -2330,10 +2330,10 @@
         <v>181</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E58" t="s">
         <v>182</v>
@@ -2351,7 +2351,7 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E59" t="s">
         <v>185</v>
@@ -2366,10 +2366,10 @@
         <v>187</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E60" t="s">
         <v>188</v>
@@ -2384,10 +2384,10 @@
         <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E61" t="s">
         <v>191</v>
@@ -2402,10 +2402,10 @@
         <v>193</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E62" t="s">
         <v>194</v>
@@ -2423,7 +2423,7 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E63" t="s">
         <v>197</v>
@@ -2441,7 +2441,7 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
         <v>200</v>
@@ -2456,10 +2456,10 @@
         <v>202</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E65" t="s">
         <v>203</v>
@@ -2474,10 +2474,10 @@
         <v>205</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
         <v>206</v>
@@ -2495,7 +2495,7 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
         <v>209</v>
@@ -2510,10 +2510,10 @@
         <v>211</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E68" t="s">
         <v>212</v>
@@ -2531,7 +2531,7 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E69" t="s">
         <v>215</v>
@@ -2549,7 +2549,7 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
         <v>218</v>
@@ -2564,10 +2564,10 @@
         <v>220</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E71" t="s">
         <v>221</v>
@@ -2585,7 +2585,7 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E72" t="s">
         <v>224</v>
@@ -2600,10 +2600,10 @@
         <v>226</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E73" t="s">
         <v>227</v>
@@ -2618,10 +2618,10 @@
         <v>229</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E74" t="s">
         <v>230</v>
@@ -2636,10 +2636,10 @@
         <v>232</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
         <v>233</v>
@@ -2654,10 +2654,10 @@
         <v>235</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E76" t="s">
         <v>236</v>
@@ -2672,10 +2672,10 @@
         <v>238</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E77" t="s">
         <v>239</v>
@@ -2690,10 +2690,10 @@
         <v>241</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E78" t="s">
         <v>242</v>
@@ -2708,10 +2708,10 @@
         <v>244</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E79" t="s">
         <v>245</v>
@@ -2729,7 +2729,7 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E80" t="s">
         <v>248</v>
@@ -2744,10 +2744,10 @@
         <v>250</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E81" t="s">
         <v>251</v>
@@ -2765,7 +2765,7 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="E82" t="s">
         <v>254</v>
@@ -2783,7 +2783,7 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E83" t="s">
         <v>257</v>
@@ -2798,10 +2798,10 @@
         <v>259</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
         <v>260</v>
@@ -2816,10 +2816,10 @@
         <v>262</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E85" t="s">
         <v>263</v>
@@ -2834,10 +2834,10 @@
         <v>265</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E86" t="s">
         <v>266</v>
@@ -2852,10 +2852,10 @@
         <v>268</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E87" t="s">
         <v>269</v>
@@ -2870,10 +2870,10 @@
         <v>271</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E88" t="s">
         <v>272</v>
@@ -2888,10 +2888,10 @@
         <v>274</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89" t="s">
         <v>275</v>
@@ -2906,10 +2906,10 @@
         <v>277</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
         <v>278</v>
@@ -2924,10 +2924,10 @@
         <v>280</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E91" t="s">
         <v>281</v>
@@ -2945,7 +2945,7 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E92" t="s">
         <v>284</v>
@@ -2960,10 +2960,10 @@
         <v>286</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E93" t="s">
         <v>287</v>
@@ -2981,7 +2981,7 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
         <v>290</v>
@@ -2996,10 +2996,10 @@
         <v>292</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
         <v>293</v>
@@ -3014,10 +3014,10 @@
         <v>295</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E96" t="s">
         <v>296</v>
@@ -3032,10 +3032,10 @@
         <v>298</v>
       </c>
       <c r="C97" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E97" t="s">
         <v>299</v>
@@ -3050,10 +3050,10 @@
         <v>301</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E98" t="s">
         <v>302</v>
@@ -3071,7 +3071,7 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="E99" t="s">
         <v>305</v>
@@ -3089,7 +3089,7 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E100" t="s">
         <v>308</v>
@@ -3107,7 +3107,7 @@
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E101" t="s">
         <v>311</v>
@@ -3122,10 +3122,10 @@
         <v>313</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E102" t="s">
         <v>314</v>
